--- a/GIT_epithel_data.xlsx
+++ b/GIT_epithel_data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AFD5CB-C16A-4CC9-999A-8E4083DEEDAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="small_intestine_SA_data" sheetId="1" r:id="rId1"/>
@@ -17,20 +18,25 @@
     <sheet name="stomach_mucusal_cells_volume" sheetId="6" r:id="rId8"/>
     <sheet name="stomach_properties" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId10"/>
-  </pivotCaches>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="215">
   <si>
     <t>Valves of Kerckring (plicae)</t>
   </si>
@@ -376,9 +382,6 @@
     <t>Segment</t>
   </si>
   <si>
-    <t>Turnover (Days)</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
@@ -395,9 +398,6 @@
   </si>
   <si>
     <t>Duodenum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          </t>
   </si>
   <si>
     <t>Individual 1</t>
@@ -420,9 +420,6 @@
   </si>
   <si>
     <t>(Macdonald et al., 1964)</t>
-  </si>
-  <si>
-    <t>Individual 2</t>
   </si>
   <si>
     <t>NA</t>
@@ -707,21 +704,6 @@
   </si>
   <si>
     <t>Small intestine</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Column Labels</t>
-  </si>
-  <si>
-    <t>Average of Turnover (Days)</t>
-  </si>
-  <si>
-    <t>Count of N</t>
   </si>
   <si>
     <t>S</t>
@@ -939,18 +921,508 @@
   <si>
     <t>from:</t>
   </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>True turnover (days)</t>
+  </si>
+  <si>
+    <t>SD TO</t>
+  </si>
+  <si>
+    <t>True method</t>
+  </si>
+  <si>
+    <t>mitotic rate</t>
+  </si>
+  <si>
+    <t>mitotic rate SD</t>
+  </si>
+  <si>
+    <t>measured migration time to surface</t>
+  </si>
+  <si>
+    <t>unclear what  could be said about the stomach</t>
+  </si>
+  <si>
+    <t>taken cell cycle instead of turnover, estimating turnover from crypt labelling index</t>
+  </si>
+  <si>
+    <t>normal mucosa adjacent to carcinoma. Mitotic arrest. Results given are potential doubling time, based on 2 time points. Maybe can serve to verifiy the overall turnover using Patel growth fraction</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>metaphase arrest</t>
+  </si>
+  <si>
+    <t>measured migration time to tip. Gave the time of maximal labeling</t>
+  </si>
+  <si>
+    <t>results based M phase length, assuming it represent the entire population</t>
+  </si>
+  <si>
+    <t>Based on their stufy from a year earlier. Cell cycle time, not turnover. Relevant to 14% of the column that constitute the proliferative compartment. Present migration times of 4-6 days to the tip of the villus</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>measured 1/100 cells enters S phase [per hour + labelled cell reach the villus tip in 120h</t>
+  </si>
+  <si>
+    <t>measured the number of shedding event over numerus villi. Calculated 80 cells/villus/24h in but adjusted to 1650 cells/villus/24hr</t>
+  </si>
+  <si>
+    <t>80h migration time, could be compatiable, assuming 1-2 day at the crypt earlier</t>
+  </si>
+  <si>
+    <t>Darwich number is the one that was given for cell cycle. The estiamte cell renewal is proceed in 1.2/100 cells per hour. And colum contain about 85-100 cells</t>
+  </si>
+  <si>
+    <t>turnover of 1% per hour in the crypt, migration rate of 1-2 days in the colon</t>
+  </si>
+  <si>
+    <t>assuming s phase of 8.6, labeling index for entire crypt</t>
+  </si>
+  <si>
+    <t>17% labeling index, Sphase=11.2h</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Macdonald, W. C., Trier, J. S. &amp; Everett, N. B. Cell Proliferation and Migration in the Stomach, Duodenum, and Rectum of Man: Radioautographic Studies. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gastroenterology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 405–417 (1964).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lipkin, M., Bell, B. &amp; Sherlock, P. Cell Proliferation Kinetics in the Gastrointestinal Tract of Man. I. Cell Renewal in Colon, and Rectum. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>J. Clin. Invest.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 767–776 (1963).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lipkin, M., Sherlock, P. &amp; Bell, B. Cell Proliferation Kinetics in the Gastrointestinal Tract of Man: II. Cell Renewal in Stomach, Ileum, Colon, and Rectum. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gastroenterology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 721–729 (1963).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bertalanffy, F. D. &amp; Nagy, K. P. Mitotic activity and renewal rate of the epithelial cells of human duodenum. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cells Tissues Organs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 362–370 (1961).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weinstein, W. M. Epithelial cell renewal of the small intestinal mucosa. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Med. Clin. North Am.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>58</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 1375–1386 (1974).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Shorter, R. G., Moertel, C. G., Titus, J. L. &amp; Reitemeier, R. J. Cell kinetics in the jejunum and rectum of man. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Am. J. Dig. Dis.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 760–763 (1964).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Potten, C. S., Kellett, M., Rew, D. A. &amp; Roberts, S. A. Proliferation in human gastrointesinal epithelium using bromodeoxyuridine in vivo: Data for different sites, proximity to a tumour, and polyposis coli. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 524–529 (1992).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bleiberg, H. &amp; Galand, P. In Vitro Autoradiographic Determination of Cell Kinetic Parameters in Adenocarcinomas and Adjacent Healthy Mucosa of the Human Colon and Rectum. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cancer Res.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, 325–328 (1976).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Patel, S. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Study of the proliferation in human gastric mucosa after in vivo bromodeoxyuridine labelling. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Gut</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 893–896 (1993).</t>
+    </r>
+  </si>
+  <si>
+    <t>Darwich turnover (Days)</t>
+  </si>
+  <si>
+    <t>increased SD to include error in S phase length</t>
+  </si>
+  <si>
+    <t>increased SD to include uncertainty invovled in determining the time of maximal shedding</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0E+00"/>
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1071,8 +1543,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1097,14 +1612,8 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1207,22 +1716,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1278,23 +1778,14 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1315,15 +1806,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="42">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1356,10 +1926,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="170" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="167" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <font>
@@ -1379,7 +1946,10 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1725,524 +2295,154 @@
 </styleSheet>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Author" refreshedDate="43689.493066898147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="17">
-  <cacheSource type="worksheet">
-    <worksheetSource name="טבלה5"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="Segment" numFmtId="0">
-      <sharedItems count="3">
-        <s v="Stomach"/>
-        <s v="Small intestine"/>
-        <s v="Colon"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Sub segment" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Turnover (Days)" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.83" maxValue="5.5"/>
-    </cacheField>
-    <cacheField name="SD" numFmtId="0">
-      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.17" maxValue="1.21"/>
-    </cacheField>
-    <cacheField name="N" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="66"/>
-    </cacheField>
-    <cacheField name="Additional information" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Method" numFmtId="0">
-      <sharedItems count="3">
-        <s v="H-Thymidine, in vivo"/>
-        <s v="BrdUrd, in vivo"/>
-        <s v="Histological study"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="References" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="17">
-  <r>
-    <x v="0"/>
-    <s v="Stomach"/>
-    <n v="5"/>
-    <n v="1"/>
-    <n v="2"/>
-    <m/>
-    <x v="0"/>
-    <s v="(Macdonald et al., 1964)"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Stomach"/>
-    <n v="3.5"/>
-    <n v="0.5"/>
-    <n v="3"/>
-    <m/>
-    <x v="0"/>
-    <s v="(Lipkin et al., 1963b)"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Stomach"/>
-    <n v="3.46"/>
-    <n v="1.21"/>
-    <n v="16"/>
-    <s v="Gastric body"/>
-    <x v="1"/>
-    <s v="(Patel et al., 1993)"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Stomach"/>
-    <n v="2.58"/>
-    <n v="1.17"/>
-    <n v="10"/>
-    <s v="Gastric antrum"/>
-    <x v="1"/>
-    <s v="(Patel et al., 1993)"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Stomach"/>
-    <n v="3.43"/>
-    <n v="1.1399999999999999"/>
-    <n v="4"/>
-    <m/>
-    <x v="0"/>
-    <s v="(Wright et al., 1977)"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Duodenum"/>
-    <n v="5.42"/>
-    <s v="          "/>
-    <n v="1"/>
-    <s v="Individual 1"/>
-    <x v="0"/>
-    <s v="(Macdonald et al., 1964)"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Duodenum"/>
-    <n v="5.5"/>
-    <n v="0.5"/>
-    <n v="1"/>
-    <s v="Individual 2"/>
-    <x v="0"/>
-    <s v="(Macdonald et al., 1964)"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Duodenum"/>
-    <n v="2"/>
-    <s v="NA"/>
-    <n v="56"/>
-    <m/>
-    <x v="2"/>
-    <s v="(Bertalanffy and Nagy, 1961)"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Duodenum"/>
-    <n v="1.26"/>
-    <n v="0.17"/>
-    <n v="2"/>
-    <m/>
-    <x v="0"/>
-    <s v="(Weinstein, 1974)"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Jejunum"/>
-    <n v="5"/>
-    <s v="NA"/>
-    <n v="3"/>
-    <m/>
-    <x v="0"/>
-    <s v="(Shorter et al., 1964)"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Ileum"/>
-    <n v="1.4"/>
-    <s v="NA"/>
-    <n v="6"/>
-    <m/>
-    <x v="2"/>
-    <s v="(Bullen et al., 2006)"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Ileum"/>
-    <n v="3"/>
-    <s v="NA"/>
-    <n v="3"/>
-    <m/>
-    <x v="0"/>
-    <s v="(Lipkin et al., 1963b)"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Colon"/>
-    <n v="1"/>
-    <s v="NA"/>
-    <n v="2"/>
-    <m/>
-    <x v="0"/>
-    <s v="(Lipkin et al., 1963a)"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Colon"/>
-    <n v="0.83"/>
-    <s v="NA"/>
-    <n v="3"/>
-    <m/>
-    <x v="0"/>
-    <s v="(Lipkin et al., 1963b)"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Colon"/>
-    <n v="3.41"/>
-    <s v="NA"/>
-    <n v="66"/>
-    <m/>
-    <x v="1"/>
-    <s v="(Potten et al., 1992)"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Colon"/>
-    <n v="1.63"/>
-    <s v="NA"/>
-    <n v="1"/>
-    <m/>
-    <x v="0"/>
-    <s v="(Lipkin et al., 1969)"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Colon"/>
-    <n v="3.04"/>
-    <n v="0.25"/>
-    <n v="8"/>
-    <m/>
-    <x v="0"/>
-    <s v="(Bleiberg and Galand, 1976)"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="N3:R8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="6"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Turnover (Days)" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="9">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="V7:Z12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="6"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of N" fld="4" subtotal="count" baseField="0" baseItem="1"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="טבלה7" displayName="טבלה7" ref="A2:E6" totalsRowShown="0" tableBorderDxfId="26">
-  <autoFilter ref="A2:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="טבלה7" displayName="טבלה7" ref="A2:E6" totalsRowShown="0" tableBorderDxfId="41">
+  <autoFilter ref="A2:E6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="level" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="factor 1975" dataDxfId="25" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="SA [m^2]" dataDxfId="24" dataCellStyle="Normal 2"/>
-    <tableColumn id="5" name="factor 2014" dataDxfId="23" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" name="revised SA [m^2] "/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="level" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="factor 1975" dataDxfId="40" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="SA [m^2]" dataDxfId="39" dataCellStyle="Normal 2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="factor 2014" dataDxfId="38" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="revised SA [m^2] "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table119" displayName="Table119" ref="A1:F9" totalsRowShown="0">
-  <autoFilter ref="A1:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table119" displayName="Table119" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="parameter"/>
-    <tableColumn id="2" name="value"/>
-    <tableColumn id="3" name="SD" dataDxfId="1"/>
-    <tableColumn id="5" name="units"/>
-    <tableColumn id="4" name="sources"/>
-    <tableColumn id="6" name="comments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="parameter"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="value"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="SD" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="units"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="sources"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="טבלה3" displayName="טבלה3" ref="A2:F21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
-  <autoFilter ref="A2:F21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="טבלה3" displayName="טבלה3" ref="A2:F21" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35" headerRowCellStyle="Normal 2" dataCellStyle="Normal 2">
+  <autoFilter ref="A2:F21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="parameter" dataDxfId="19" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="rabbit" dataDxfId="18" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="rat" dataDxfId="17" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="pigs" dataDxfId="16" dataCellStyle="Normal 2"/>
-    <tableColumn id="6" name="dog" dataDxfId="15" dataCellStyle="Normal 2"/>
-    <tableColumn id="7" name="human" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="parameter" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="rabbit" dataDxfId="33" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="rat" dataDxfId="32" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="pigs" dataDxfId="31" dataCellStyle="Normal 2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="dog" dataDxfId="30" dataCellStyle="Normal 2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="human" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="GITepithelSources" displayName="GITepithelSources" ref="J1:L18" totalsRowShown="0" headerRowDxfId="13" headerRowCellStyle="Normal 2">
-  <autoFilter ref="J1:L18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="GITepithelSources" displayName="GITepithelSources" ref="J1:L18" totalsRowShown="0" headerRowDxfId="28" headerRowCellStyle="Normal 2">
+  <autoFilter ref="J1:L18" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="#" dataDxfId="12" dataCellStyle="Normal 2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#" dataDxfId="27" dataCellStyle="Normal 2">
       <calculatedColumnFormula>"[" &amp; ROW()-ROW(GITepithelSources[[#Headers],['#]]) &amp;"]"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="ab." dataDxfId="11" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="source" dataDxfId="10" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ab." dataDxfId="26" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="source" dataDxfId="25" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:D4" totalsRowShown="0">
-  <autoFilter ref="A1:D4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table10" displayName="Table10" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="segment"/>
-    <tableColumn id="2" name="total mass [g]"/>
-    <tableColumn id="3" name="pottasium [g]"/>
-    <tableColumn id="5" name="pottasium SD [g]" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="segment"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="total mass [g]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="pottasium [g]"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="pottasium SD [g]" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1112" displayName="Table1112" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table1112" displayName="Table1112" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="parameter"/>
-    <tableColumn id="2" name="value"/>
-    <tableColumn id="3" name="SD"/>
-    <tableColumn id="5" name="units"/>
-    <tableColumn id="4" name="sources"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="parameter"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="value"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="SD"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="units"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="sources"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="טבלה5" displayName="טבלה5" ref="A1:H18" totalsRowShown="0">
-  <autoFilter ref="A1:H18"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Segment"/>
-    <tableColumn id="8" name="Sub segment"/>
-    <tableColumn id="2" name="Turnover (Days)"/>
-    <tableColumn id="3" name="SD"/>
-    <tableColumn id="4" name="N"/>
-    <tableColumn id="5" name="Additional information"/>
-    <tableColumn id="6" name="Method"/>
-    <tableColumn id="7" name="References"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="טבלה5" displayName="טבלה5" ref="A1:O17" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="A1:O17" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Segment" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Sub segment" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Darwich turnover (Days)" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="SD" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="N" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Additional information" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Method" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="References" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{B409C704-6031-4C98-B818-3DEA281FDED8}" name="review" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{25B02565-E775-4299-BDA6-93DDE781C859}" name="True turnover (days)" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{BD16EB17-B6AA-4BD5-A842-094B8C7B48D9}" name="SD TO" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{BB299D87-6065-46B3-8BFA-8C7337CE9448}" name="True method" dataDxfId="3"/>
+    <tableColumn id="13" xr3:uid="{3C30F6E0-F77F-42F4-90A5-2F54C09BC5AE}" name="mitotic rate" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{BA139C9B-B103-46F1-B8FF-5CAB2BFC67C2}" name="mitotic rate SD" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{FAF8E6F2-5078-4508-8D4A-23104F646CC8}" name="comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table11" displayName="Table11" ref="A1:F7" totalsRowShown="0">
-  <autoFilter ref="A1:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table11" displayName="Table11" ref="A1:F7" totalsRowShown="0">
+  <autoFilter ref="A1:F7" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="parameter"/>
-    <tableColumn id="2" name="value"/>
-    <tableColumn id="3" name="SD"/>
-    <tableColumn id="5" name="units"/>
-    <tableColumn id="4" name="sources"/>
-    <tableColumn id="6" name="comments"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="parameter"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="value"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SD"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="units"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="sources"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="crypt_cells" displayName="crypt_cells" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="crypt_cells" displayName="crypt_cells" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="patient"/>
-    <tableColumn id="2" name="mean crypt cells"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="patient"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="mean crypt cells"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G6" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table2" displayName="Table2" ref="A1:G6" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:G6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="location"/>
-    <tableColumn id="2" name="mean mucus volume density (%)" dataDxfId="8" dataCellStyle="Percent"/>
-    <tableColumn id="3" name="SEM mucus volume density (%) " dataDxfId="6" dataCellStyle="Percent"/>
-    <tableColumn id="4" name="mean mucus volume per cell (fl)" dataDxfId="5"/>
-    <tableColumn id="5" name="SEM mucus volume per cell (fl)" dataDxfId="4"/>
-    <tableColumn id="8" name="mean cell volume (fl)" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="location"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="mean mucus volume density (%)" dataDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="SEM mucus volume density (%) " dataDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="mean mucus volume per cell (fl)" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="SEM mucus volume per cell (fl)" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="mean cell volume (fl)" dataDxfId="18">
       <calculatedColumnFormula>Table2[[#This Row],[mean mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="SEM cell volume (fl)" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="SEM cell volume (fl)" dataDxfId="17">
       <calculatedColumnFormula>SQRT(SUMSQ(Table2[[#This Row],[SEM mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]],Table2[[#This Row],[mean mucus volume per cell (fl)]]*Table2[[#This Row],[SEM mucus volume density (%) ]]/(Table2[[#This Row],[mean mucus volume density (%)]]^2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2512,20 +2712,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2536,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25">
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2553,7 +2753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
@@ -2572,7 +2772,7 @@
         <v>0.22855086554865747</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -2580,7 +2780,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="8">
-        <f>C3*טבלה7[factor 1975]</f>
+        <f>C3*טבלה7[[#This Row],[factor 1975]]</f>
         <v>1</v>
       </c>
       <c r="D4" s="9">
@@ -2591,7 +2791,7 @@
         <v>0.35882485891139226</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -2599,7 +2799,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="8">
-        <f>C4*טבלה7[factor 1975]</f>
+        <f>C4*טבלה7[[#This Row],[factor 1975]]</f>
         <v>10</v>
       </c>
       <c r="D5" s="6">
@@ -2610,7 +2810,7 @@
         <v>2.3323615829240496</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
@@ -2618,7 +2818,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="8">
-        <f>C5*טבלה7[factor 1975]</f>
+        <f>C5*טבלה7[[#This Row],[factor 1975]]</f>
         <v>200</v>
       </c>
       <c r="D6" s="11">
@@ -2639,22 +2839,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.26953125" customWidth="1"/>
+    <col min="12" max="12" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
         <v>30</v>
       </c>
@@ -2671,7 +2871,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="J1" s="27" t="s">
         <v>31</v>
@@ -2683,7 +2883,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>12</v>
       </c>
@@ -2713,9 +2913,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="14">
         <v>630</v>
@@ -2744,9 +2944,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="14">
         <v>90</v>
@@ -2773,9 +2973,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.25">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -2799,7 +2999,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
@@ -2821,7 +3021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
@@ -2844,7 +3044,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.25">
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>22</v>
       </c>
@@ -2873,7 +3073,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.25">
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
@@ -2897,7 +3097,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.25">
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>24</v>
       </c>
@@ -2921,9 +3121,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="14">
         <v>145</v>
@@ -2951,9 +3151,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -2974,7 +3174,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
@@ -2997,7 +3197,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25">
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
@@ -3021,9 +3221,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -3045,9 +3245,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -3069,9 +3269,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -3092,9 +3292,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25">
+    <row r="18" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -3105,20 +3305,20 @@
         <v>44.178646691106465</v>
       </c>
       <c r="G18" s="19"/>
-      <c r="J18" s="56" t="str">
+      <c r="J18" s="51" t="str">
         <f>"[" &amp; ROW()-ROW(GITepithelSources[[#Headers],['#]]) &amp;"]"</f>
         <v>[17]</v>
       </c>
-      <c r="K18" s="57" t="s">
-        <v>177</v>
+      <c r="K18" s="52" t="s">
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="17.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -3129,20 +3329,20 @@
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:12" ht="17.25">
+    <row r="20" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="53">
+      <c r="F20" s="48">
         <v>150</v>
       </c>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
@@ -3165,37 +3365,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>150</v>
@@ -3207,16 +3407,16 @@
         <f>(0.3-0.12)/(2*_xlfn.NORM.INV(0.9,0,1))</f>
         <v>7.0227373146514102E-2</v>
       </c>
-      <c r="I2" s="52" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="39" t="s">
+      <c r="I2" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>640</v>
@@ -3229,9 +3429,9 @@
         <v>0.39015207303618943</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>370</v>
@@ -3244,8 +3444,8 @@
         <v>4.6818248764342735E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="H5" s="52"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H5" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3256,38 +3456,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>39.1</v>
@@ -3296,12 +3496,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B3">
         <v>9.1999999999999998E-3</v>
@@ -3310,10 +3510,10 @@
         <v>1E-3</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3325,745 +3525,762 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="60.54296875" customWidth="1"/>
+    <col min="12" max="12" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="76.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.54296875" customWidth="1"/>
+    <col min="17" max="17" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.54296875" customWidth="1"/>
+    <col min="20" max="20" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>65</v>
       </c>
       <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" t="s">
+        <v>180</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="57">
+        <v>5</v>
+      </c>
+      <c r="D2" s="57">
+        <v>1</v>
+      </c>
+      <c r="E2" s="57">
+        <v>2</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="64">
+        <v>5</v>
+      </c>
+      <c r="K2" s="56">
+        <v>1</v>
+      </c>
+      <c r="L2" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="30"/>
+    </row>
+    <row r="3" spans="1:20" s="57" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="57">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="57">
+        <v>3</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="55"/>
+      <c r="L3" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="S3" s="30"/>
+    </row>
+    <row r="4" spans="1:20" s="57" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="57">
+        <v>3.46</v>
+      </c>
+      <c r="D4" s="57">
+        <v>1.21</v>
+      </c>
+      <c r="E4" s="57">
+        <v>16</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H4" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J4" s="64">
+        <v>28.1</v>
+      </c>
+      <c r="K4" s="58">
+        <f>SQRT(SUMSQ(4.1/2.8%, 10.8*2.4%/(2.8%)^2))/24</f>
+        <v>15.06616097781763</v>
+      </c>
+      <c r="L4" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="S4" s="30"/>
+    </row>
+    <row r="5" spans="1:20" s="57" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="57">
+        <v>2.58</v>
+      </c>
+      <c r="D5" s="57">
+        <v>1.17</v>
+      </c>
+      <c r="E5" s="57">
+        <v>10</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J5" s="64">
+        <v>11.5</v>
+      </c>
+      <c r="K5" s="58">
+        <f>SQRT(SUMSQ(3.1/4.8%, 7.7*3.1%/(4.8%)^2))/24</f>
+        <v>5.0868277882177848</v>
+      </c>
+      <c r="L5" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="S5" s="30"/>
+    </row>
+    <row r="6" spans="1:20" s="57" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="57">
+        <v>3.43</v>
+      </c>
+      <c r="D6" s="57">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E6" s="57">
+        <v>4</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="M6" s="59">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N6" s="59">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="R6" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="S6" s="30"/>
+    </row>
+    <row r="7" spans="1:20" s="57" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="57">
+        <v>5.5</v>
+      </c>
+      <c r="D7" s="57">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="57">
+        <v>2</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" s="64">
+        <v>6</v>
+      </c>
+      <c r="K7" s="55">
+        <v>2</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="S7" s="30"/>
+    </row>
+    <row r="8" spans="1:20" s="57" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="57">
+        <v>2</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="57">
+        <v>56</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="55"/>
+      <c r="L8" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="59">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N8" s="59">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="S8" s="30"/>
+    </row>
+    <row r="9" spans="1:20" s="57" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="57">
+        <v>1.26</v>
+      </c>
+      <c r="D9" s="57">
+        <v>0.17</v>
+      </c>
+      <c r="E9" s="57">
+        <v>2</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="J9" s="64">
+        <v>5</v>
+      </c>
+      <c r="K9" s="55">
+        <v>2</v>
+      </c>
+      <c r="L9" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="S9" s="30"/>
+    </row>
+    <row r="10" spans="1:20" s="57" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="57">
+        <v>5</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="57">
+        <v>3</v>
+      </c>
+      <c r="G10" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="64">
+        <v>5</v>
+      </c>
+      <c r="K10" s="55">
+        <v>1</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="S10" s="30"/>
+    </row>
+    <row r="11" spans="1:20" s="57" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="57">
+        <v>1.4</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="57">
+        <v>6</v>
+      </c>
+      <c r="G11" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="55"/>
+      <c r="R11" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="S11" s="30"/>
+    </row>
+    <row r="12" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="57">
+        <v>3</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="57">
+        <v>3</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="J12" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K12" s="55"/>
+      <c r="L12" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="S12" s="60"/>
+      <c r="T12" s="61"/>
+    </row>
+    <row r="13" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="57">
+        <v>1</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="57">
+        <v>2</v>
+      </c>
+      <c r="G13" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="J13" s="58">
+        <v>3.5</v>
+      </c>
+      <c r="K13" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="S13" s="60"/>
+      <c r="T13" s="61"/>
+    </row>
+    <row r="14" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="57">
+        <v>0.83</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="57">
+        <v>3</v>
+      </c>
+      <c r="G14" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="J14" s="58">
+        <f>92/24</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="K14" s="55">
+        <v>0</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="61"/>
+    </row>
+    <row r="15" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="57">
+        <v>3.41</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="57">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="G15" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="58">
+        <f>82.2/24</f>
+        <v>3.4250000000000003</v>
+      </c>
+      <c r="K15" s="58">
+        <f>SQRT(SUMSQ(9.2/24, 2/8.6*טבלה5[[#This Row],[True turnover (days)]]))</f>
+        <v>0.88395430754958526</v>
+      </c>
+      <c r="L15" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="57" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="57">
+        <v>1.63</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="57">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3">
-        <v>3.5</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="O3" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4">
-        <v>3.46</v>
-      </c>
-      <c r="D4">
-        <v>1.21</v>
-      </c>
-      <c r="E4">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="O4" t="s">
-        <v>123</v>
-      </c>
-      <c r="P4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>121</v>
-      </c>
-      <c r="R4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5">
-        <v>2.58</v>
-      </c>
-      <c r="D5">
-        <v>1.17</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G16" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="K16" s="55"/>
+    </row>
+    <row r="17" spans="1:12" s="57" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="G5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5" t="s">
-        <v>126</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="O5" s="32">
-        <v>3.41</v>
-      </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32">
-        <v>1.625</v>
-      </c>
-      <c r="R5" s="32">
-        <v>1.982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6">
-        <v>3.43</v>
-      </c>
-      <c r="D6">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H6" t="s">
-        <v>127</v>
-      </c>
-      <c r="N6" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32">
-        <v>1.7</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>4.0359999999999996</v>
-      </c>
-      <c r="R6" s="32">
-        <v>3.3685714285714283</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7">
-        <v>5.42</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B17" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="57">
+        <v>3.04</v>
+      </c>
+      <c r="D17" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="57">
+        <v>8</v>
+      </c>
+      <c r="G17" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s">
-        <v>76</v>
-      </c>
-      <c r="N7" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="O7" s="32">
-        <v>3.02</v>
-      </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32">
-        <v>3.9766666666666666</v>
-      </c>
-      <c r="R7" s="32">
-        <v>3.5939999999999999</v>
-      </c>
-      <c r="V7" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="W7" s="40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8">
-        <v>5.5</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="O8" s="43">
-        <v>3.15</v>
-      </c>
-      <c r="P8" s="43">
-        <v>1.7</v>
-      </c>
-      <c r="Q8" s="43">
-        <v>3.2175000000000007</v>
-      </c>
-      <c r="R8" s="43">
-        <v>3.0270588235294116</v>
-      </c>
-      <c r="V8" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="W8" t="s">
-        <v>123</v>
-      </c>
-      <c r="X8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>121</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" t="s">
-        <v>80</v>
-      </c>
-      <c r="V9" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="W9" s="43">
-        <v>1</v>
-      </c>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10">
-        <v>1.26</v>
-      </c>
-      <c r="D10">
-        <v>0.17</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>81</v>
-      </c>
-      <c r="V10" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="W10" s="43"/>
-      <c r="X10" s="43">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="43">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="43">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="V11" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="W11" s="43">
-        <v>2</v>
-      </c>
-      <c r="X11" s="43"/>
-      <c r="Y11" s="43">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12">
-        <v>1.4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" t="s">
-        <v>85</v>
-      </c>
-      <c r="O12" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q12" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="V12" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="W12" s="43">
-        <v>3</v>
-      </c>
-      <c r="X12" s="43">
-        <v>2</v>
-      </c>
-      <c r="Y12" s="43">
-        <v>12</v>
-      </c>
-      <c r="Z12" s="43">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="O13" s="32">
-        <f>SUMPRODUCT(טבלה5[Turnover (Days)],טבלה5[N],1*(טבלה5[Segment]=$N13),1*(טבלה5[Method]=O$12))/SUMPRODUCT(טבלה5[N],1*(טבלה5[Segment]=$N13),1*(טבלה5[Method]=O$12))</f>
-        <v>3.41</v>
-      </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32">
-        <f>SUMPRODUCT(טבלה5[Turnover (Days)],טבלה5[N],1*(טבלה5[Segment]=$N13),1*(טבלה5[Method]=Q$12))/SUMPRODUCT(טבלה5[N],1*(טבלה5[Segment]=$N13),1*(טבלה5[Method]=Q$12))</f>
-        <v>2.1742857142857144</v>
-      </c>
-      <c r="S13" s="32">
-        <f>AVERAGE(O13,Q13)</f>
-        <v>2.7921428571428573</v>
-      </c>
-      <c r="T13" s="44">
-        <f>STDEV(O13,Q13)/SQRT(2)</f>
-        <v>0.61785714285714366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" t="s">
-        <v>128</v>
-      </c>
-      <c r="B14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="H17" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="N14" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32">
-        <f>SUMPRODUCT(טבלה5[Turnover (Days)],טבלה5[N],1*(טבלה5[Segment]=$N14),1*(טבלה5[Method]=P$12))/SUMPRODUCT(טבלה5[N],1*(טבלה5[Segment]=$N14),1*(טבלה5[Method]=P$12))</f>
-        <v>1.9419354838709679</v>
-      </c>
-      <c r="Q14" s="32">
-        <f>SUMPRODUCT(טבלה5[Turnover (Days)],טבלה5[N],1*(טבלה5[Segment]=$N14),1*(טבלה5[Method]=Q$12))/SUMPRODUCT(טבלה5[N],1*(טבלה5[Segment]=$N14),1*(טבלה5[Method]=Q$12))</f>
-        <v>3.7439999999999998</v>
-      </c>
-      <c r="S14" s="32">
-        <f>AVERAGE(P14,Q14)</f>
-        <v>2.842967741935484</v>
-      </c>
-      <c r="T14" s="44">
-        <f>STDEV(P14,Q14)/SQRT(2)</f>
-        <v>0.90103225806451548</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15">
-        <v>0.83</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="32">
-        <f>SUMPRODUCT(טבלה5[Turnover (Days)],טבלה5[N],1*(טבלה5[Segment]=$N15),1*(טבלה5[Method]=O$12))/SUMPRODUCT(טבלה5[N],1*(טבלה5[Segment]=$N15),1*(טבלה5[Method]=O$12))</f>
-        <v>3.1215384615384614</v>
-      </c>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32">
-        <f>SUMPRODUCT(טבלה5[Turnover (Days)],טבלה5[N],1*(טבלה5[Segment]=$N15),1*(טבלה5[Method]=Q$12))/SUMPRODUCT(טבלה5[N],1*(טבלה5[Segment]=$N15),1*(טבלה5[Method]=Q$12))</f>
-        <v>3.8022222222222219</v>
-      </c>
-      <c r="S15" s="32">
-        <f>AVERAGE(O15,Q15)</f>
-        <v>3.4618803418803417</v>
-      </c>
-      <c r="T15" s="44">
-        <f>STDEV(O15,Q15)/SQRT(2)</f>
-        <v>0.34034188034188029</v>
-      </c>
-      <c r="V15">
-        <f>AVERAGEIF(טבלה5[Segment],"Colon",טבלה5[Turnover (Days)])</f>
-        <v>1.982</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16">
-        <v>3.41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16">
-        <v>66</v>
-      </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
-      <c r="A17" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C17">
-        <v>1.63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s">
-        <v>131</v>
-      </c>
-      <c r="X17">
-        <f>STDEV(C14:C18)</f>
-        <v>1.1804533027612742</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
-      <c r="A18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B18" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18">
+      <c r="I17" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="J17" s="58">
         <v>3.04</v>
       </c>
-      <c r="D18">
+      <c r="K17" s="55">
         <v>0.25</v>
       </c>
-      <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s">
-        <v>132</v>
-      </c>
-      <c r="X18">
-        <f>X17/SQRT(5)</f>
-        <v>0.52791476584766983</v>
-      </c>
+      <c r="L17" s="57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J19" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:F7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.54296875" customWidth="1"/>
+    <col min="6" max="6" width="43.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="34" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="J1" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>6000</v>
@@ -4072,85 +4289,85 @@
         <v>2000</v>
       </c>
       <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <f>190*4.8*PI()</f>
         <v>2865.1325000738912</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="36">
         <f>SQRT(SUMSQ(5/190,0.4/4.8))</f>
         <v>8.7389731777067006E-2</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>106</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="35">
+        <v>111</v>
+      </c>
+      <c r="B4" s="34">
         <f>ROUND(AVERAGE(crypt_cells[mean crypt cells]),-1)</f>
         <v>3270</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="34">
         <f>ROUND(STDEV(crypt_cells[mean crypt cells])/SQRT(COUNT(crypt_cells[mean crypt cells])),-1)</f>
         <v>440</v>
       </c>
       <c r="D4" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>113</v>
       </c>
-      <c r="E4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>250000000</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>115</v>
-      </c>
-      <c r="J5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" t="s">
-        <v>118</v>
       </c>
       <c r="B6" s="32">
         <v>0.3</v>
@@ -4159,15 +4376,15 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>70</v>
@@ -4176,17 +4393,17 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="38"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10" s="36"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="37"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4197,28 +4414,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4226,7 +4443,7 @@
         <v>4840.2555910543097</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4234,7 +4451,7 @@
         <v>3466.4536741214001</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4242,7 +4459,7 @@
         <v>3514.3769968051101</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4250,7 +4467,7 @@
         <v>3290.7348242811399</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4258,7 +4475,7 @@
         <v>2963.2587859424898</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4275,208 +4492,208 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="33.75" customHeight="1">
-      <c r="A1" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    <row r="1" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="37">
+        <v>131</v>
+      </c>
+      <c r="B2" s="36">
         <v>0.13</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="40">
         <v>8.1395348837200038E-3</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="34">
         <v>100.77399380804898</v>
       </c>
-      <c r="E2" s="35">
+      <c r="E2" s="34">
         <v>8.8235294117650085</v>
       </c>
-      <c r="F2" s="35">
+      <c r="F2" s="34">
         <f>Table2[[#This Row],[mean mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]]</f>
         <v>775.18456775422294</v>
       </c>
-      <c r="G2" s="35">
+      <c r="G2" s="34">
         <f>SQRT(SUMSQ(Table2[[#This Row],[SEM mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]],Table2[[#This Row],[mean mucus volume per cell (fl)]]*Table2[[#This Row],[SEM mucus volume density (%) ]]/(Table2[[#This Row],[mean mucus volume density (%)]]^2)))</f>
         <v>83.441596805947896</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="37">
+        <v>132</v>
+      </c>
+      <c r="B3" s="36">
         <v>0.20558139534883701</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="40">
         <v>6.7441860465109827E-3</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>154.17956656346701</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="34">
         <v>26.934984520123994</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="34">
         <f>Table2[[#This Row],[mean mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]]</f>
         <v>749.96847989016828</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <f>SQRT(SUMSQ(Table2[[#This Row],[SEM mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]],Table2[[#This Row],[mean mucus volume per cell (fl)]]*Table2[[#This Row],[SEM mucus volume density (%) ]]/(Table2[[#This Row],[mean mucus volume density (%)]]^2)))</f>
         <v>133.30859081806889</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="37">
+        <v>133</v>
+      </c>
+      <c r="B4" s="36">
         <v>0.184883720930232</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="40">
         <v>1.1162790697674972E-2</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>191.79566563467401</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="34">
         <v>26.934984520123994</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="34">
         <f>Table2[[#This Row],[mean mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]]</f>
         <v>1037.3853612944663</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="34">
         <f>SQRT(SUMSQ(Table2[[#This Row],[SEM mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]],Table2[[#This Row],[mean mucus volume per cell (fl)]]*Table2[[#This Row],[SEM mucus volume density (%) ]]/(Table2[[#This Row],[mean mucus volume density (%)]]^2)))</f>
         <v>158.57971320825655</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="37">
+        <v>134</v>
+      </c>
+      <c r="B5" s="36">
         <v>0.17139534883720897</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="40">
         <v>1.139534883720902E-2</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>143.49845201238301</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="34">
         <v>13.931888544892001</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="34">
         <f>Table2[[#This Row],[mean mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]]</f>
         <v>837.2365585525755</v>
       </c>
-      <c r="G5" s="35">
+      <c r="G5" s="34">
         <f>SQRT(SUMSQ(Table2[[#This Row],[SEM mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]],Table2[[#This Row],[mean mucus volume per cell (fl)]]*Table2[[#This Row],[SEM mucus volume density (%) ]]/(Table2[[#This Row],[mean mucus volume density (%)]]^2)))</f>
         <v>98.517930195060814</v>
       </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="37">
+        <v>135</v>
+      </c>
+      <c r="B6" s="36">
         <v>0.175813953488372</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="40">
         <v>7.9069767441859902E-3</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>127.24458204334299</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="34">
         <v>2.7863777089790043</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="34">
         <f>Table2[[#This Row],[mean mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]]</f>
         <v>723.74563860631633</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="34">
         <f>SQRT(SUMSQ(Table2[[#This Row],[SEM mucus volume per cell (fl)]]/Table2[[#This Row],[mean mucus volume density (%)]],Table2[[#This Row],[mean mucus volume per cell (fl)]]*Table2[[#This Row],[SEM mucus volume density (%) ]]/(Table2[[#This Row],[mean mucus volume density (%)]]^2)))</f>
         <v>36.202722209333643</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="Q6" s="38"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="I7" s="47"/>
-      <c r="J7" s="35"/>
-      <c r="Q7" s="38"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="I8" s="47"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="I9" s="47"/>
-      <c r="J9" s="35"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="I10" s="47"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="50"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="Q6" s="37"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I7" s="42"/>
+      <c r="J7" s="34"/>
+      <c r="Q7" s="37"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I8" s="42"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I9" s="42"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="I10" s="42"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4487,207 +4704,207 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="54" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>95</v>
       </c>
       <c r="E1" t="s">
         <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="50">
+        <v>160</v>
+      </c>
+      <c r="B2" s="45">
         <v>0.17</v>
       </c>
-      <c r="C2" s="55">
-        <f t="shared" ref="C2:C3" si="0">(20%-12%)/4</f>
+      <c r="C2" s="50">
+        <f t="shared" ref="C2" si="0">(20%-12%)/4</f>
         <v>2.0000000000000004E-2</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>158</v>
+      <c r="D2" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="E2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>149</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="37">
+        <v>161</v>
+      </c>
+      <c r="B3" s="36">
         <v>0.06</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="50">
         <f>(9%-4%)/4</f>
         <v>1.2499999999999999E-2</v>
       </c>
-      <c r="D3" s="54" t="s">
-        <v>158</v>
+      <c r="D3" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>149</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="50">
+        <v>152</v>
+      </c>
+      <c r="B4" s="45">
         <v>0.8</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="50">
         <f>(26%-16%)/4</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D4" s="54" t="s">
-        <v>158</v>
+      <c r="D4" s="49" t="s">
+        <v>150</v>
       </c>
       <c r="E4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="N4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="45">
+        <v>0.83</v>
+      </c>
+      <c r="C5" s="50">
+        <v>0.02</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="36">
+        <v>0.38</v>
+      </c>
+      <c r="C6" s="41">
+        <v>0.02</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="N4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="50">
-        <v>0.83</v>
-      </c>
-      <c r="C5" s="55">
-        <v>0.02</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="37">
-        <v>0.38</v>
-      </c>
-      <c r="C6" s="46">
-        <v>0.02</v>
-      </c>
-      <c r="D6" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="43">
+      <c r="B7" s="39">
         <v>150</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="44">
         <f>46/SQRT(49)</f>
         <v>6.5714285714285712</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B8" s="35">
+        <v>164</v>
+      </c>
+      <c r="B8" s="34">
         <f>stomach_mucusal_cells_volume!$F$2</f>
         <v>775.18456775422294</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <f>stomach_mucusal_cells_volume!G2</f>
         <v>83.441596805947896</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>173</v>
-      </c>
-      <c r="B9" s="35">
+        <v>165</v>
+      </c>
+      <c r="B9" s="34">
         <f>AVERAGE(stomach_mucusal_cells_volume!F3:F6)</f>
         <v>837.08400958588163</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <f>SQRT(SUMSQ(AVERAGE(stomach_mucusal_cells_volume!G3:G6),STDEV(stomach_mucusal_cells_volume!$F$3:$F$6)/SQRT(COUNT(stomach_mucusal_cells_volume!$F$3:$F$6))))</f>
         <v>128.14437102285615</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
